--- a/xlsForms/Encuesta 4 SERVICIOS.xlsx
+++ b/xlsForms/Encuesta 4 SERVICIOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D46AA4-377C-4882-9CCF-243A37E522B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63133A-13BC-44BD-A5C2-B47C972AD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -816,30 +816,6 @@
     <t>Temporal</t>
   </si>
   <si>
-    <t>inferior_900k</t>
-  </si>
-  <si>
-    <t>Inferiores a $900.000</t>
-  </si>
-  <si>
-    <t>901k_1800k</t>
-  </si>
-  <si>
-    <t>$901.000 - $1.800.000</t>
-  </si>
-  <si>
-    <t>1801k_2700k</t>
-  </si>
-  <si>
-    <t>$1.801.000 - $2.700.000</t>
-  </si>
-  <si>
-    <t>superior_2701k</t>
-  </si>
-  <si>
-    <t>Superiores a $2.701.000</t>
-  </si>
-  <si>
     <t>datos_encuesta</t>
   </si>
   <si>
@@ -877,13 +853,37 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1A45AjJ8UFlebJNW9RlKVGF47l9xk-IjtSmBjfRmCyBk/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>inferior_smlv</t>
+  </si>
+  <si>
+    <t>Inferiores al SMLV</t>
+  </si>
+  <si>
+    <t>igual_smlv</t>
+  </si>
+  <si>
+    <t>Igual al SMLV</t>
+  </si>
+  <si>
+    <t>entre_1y2_smlv</t>
+  </si>
+  <si>
+    <t>Entre 1 y 2 SMLV</t>
+  </si>
+  <si>
+    <t>superior_2</t>
+  </si>
+  <si>
+    <t>Superior a 2 SMLV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +906,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -952,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -965,6 +972,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1269,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1308,10 +1316,10 @@
         <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1369,10 +1377,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,10 +1469,10 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,10 +1878,10 @@
         <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2412,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,44 +2974,44 @@
       <c r="A50" t="s">
         <v>169</v>
       </c>
-      <c r="B50" t="s">
-        <v>264</v>
-      </c>
-      <c r="C50" t="s">
-        <v>265</v>
+      <c r="B50" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>169</v>
       </c>
-      <c r="B51" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" t="s">
-        <v>267</v>
+      <c r="B51" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>169</v>
       </c>
-      <c r="B52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" t="s">
-        <v>269</v>
+      <c r="B52" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>169</v>
       </c>
-      <c r="B53" t="s">
-        <v>270</v>
-      </c>
-      <c r="C53" t="s">
-        <v>271</v>
+      <c r="B53" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3028,24 +3036,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/xlsForms/Encuesta 4 SERVICIOS.xlsx
+++ b/xlsForms/Encuesta 4 SERVICIOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63133A-13BC-44BD-A5C2-B47C972AD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E505AFF1-B1DD-4120-91E7-88E50FE6B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="292">
   <si>
     <t>type</t>
   </si>
@@ -877,6 +877,27 @@
   </si>
   <si>
     <t>Superior a 2 SMLV</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>parameters</t>
   </si>
 </sst>
 </file>
@@ -932,7 +953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -955,11 +976,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -973,6 +1005,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,9 +1327,10 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1349,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -1325,7 +1367,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1367,12 +1409,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -1383,7 +1425,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1445,7 +1487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1459,12 +1501,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -1475,7 +1517,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1489,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2381,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2395,7 +2437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -2406,10 +2448,60 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2420,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xlsForms/Encuesta 4 SERVICIOS.xlsx
+++ b/xlsForms/Encuesta 4 SERVICIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E505AFF1-B1DD-4120-91E7-88E50FE6B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89BD80-D5E2-4162-8D1C-D0D72B235126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>105</v>
